--- a/players_stats/Bojan Bogdanovic.xlsx
+++ b/players_stats/Bojan Bogdanovic.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,7 +552,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -560,7 +560,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,101 +570,101 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>78</v>
       </c>
       <c r="I2" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J2" t="n">
-        <v>2175</v>
+        <v>1854</v>
       </c>
       <c r="K2" t="n">
-        <v>344</v>
+        <v>261</v>
       </c>
       <c r="L2" t="n">
-        <v>772</v>
+        <v>576</v>
       </c>
       <c r="M2" t="n">
-        <v>0.446</v>
+        <v>0.453</v>
       </c>
       <c r="N2" t="n">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="O2" t="n">
-        <v>329</v>
+        <v>256</v>
       </c>
       <c r="P2" t="n">
-        <v>0.392</v>
+        <v>0.355</v>
       </c>
       <c r="Q2" t="n">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="R2" t="n">
-        <v>443</v>
+        <v>320</v>
       </c>
       <c r="S2" t="n">
-        <v>0.485</v>
+        <v>0.531</v>
       </c>
       <c r="T2" t="n">
-        <v>0.529</v>
+        <v>0.532</v>
       </c>
       <c r="U2" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="V2" t="n">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="W2" t="n">
-        <v>0.84</v>
+        <v>0.821</v>
       </c>
       <c r="X2" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>163</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>213</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>68</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>78</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>104</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>700</v>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 203</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 97 </t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ2" t="n">
         <v>31</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>192</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>223</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>258</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>72</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>125</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>172</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>917</v>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 198</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 99 </t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ2" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -676,7 +676,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -694,92 +694,92 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
-        <v>1947</v>
+        <v>2115</v>
       </c>
       <c r="K3" t="n">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="L3" t="n">
-        <v>863</v>
+        <v>749</v>
       </c>
       <c r="M3" t="n">
-        <v>0.418</v>
+        <v>0.433</v>
       </c>
       <c r="N3" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O3" t="n">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="P3" t="n">
-        <v>0.36</v>
+        <v>0.382</v>
       </c>
       <c r="Q3" t="n">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="R3" t="n">
-        <v>491</v>
+        <v>411</v>
       </c>
       <c r="S3" t="n">
-        <v>0.462</v>
+        <v>0.474</v>
       </c>
       <c r="T3" t="n">
-        <v>0.496</v>
+        <v>0.519</v>
       </c>
       <c r="U3" t="n">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="V3" t="n">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8270000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="X3" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Y3" t="n">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="Z3" t="n">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="AA3" t="n">
-        <v>267</v>
+        <v>99</v>
       </c>
       <c r="AB3" t="n">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AE3" t="n">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="AF3" t="n">
-        <v>990</v>
+        <v>887</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 198</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -800,7 +800,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -808,7 +808,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -818,92 +818,92 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J4" t="n">
-        <v>224</v>
+        <v>2083</v>
       </c>
       <c r="K4" t="n">
-        <v>35</v>
+        <v>376</v>
       </c>
       <c r="L4" t="n">
-        <v>93</v>
+        <v>845</v>
       </c>
       <c r="M4" t="n">
-        <v>0.376</v>
+        <v>0.445</v>
       </c>
       <c r="N4" t="n">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O4" t="n">
-        <v>60</v>
+        <v>392</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4</v>
+        <v>0.367</v>
       </c>
       <c r="Q4" t="n">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="R4" t="n">
-        <v>33</v>
+        <v>453</v>
       </c>
       <c r="S4" t="n">
-        <v>0.333</v>
+        <v>0.512</v>
       </c>
       <c r="T4" t="n">
-        <v>0.505</v>
+        <v>0.53</v>
       </c>
       <c r="U4" t="n">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="V4" t="n">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7</v>
+        <v>0.893</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="Y4" t="n">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>277</v>
       </c>
       <c r="AA4" t="n">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="AB4" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="AF4" t="n">
-        <v>108</v>
+        <v>1113</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 198</t>
+          <t xml:space="preserve"> 203</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -924,113 +924,733 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>55</v>
+      </c>
+      <c r="I5" t="n">
+        <v>54</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1482</v>
+      </c>
+      <c r="K5" t="n">
+        <v>269</v>
+      </c>
+      <c r="L5" t="n">
+        <v>611</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N5" t="n">
+        <v>99</v>
+      </c>
+      <c r="O5" t="n">
+        <v>277</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>170</v>
+      </c>
+      <c r="R5" t="n">
+        <v>334</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="U5" t="n">
+        <v>146</v>
+      </c>
+      <c r="V5" t="n">
+        <v>167</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.8740000000000001</v>
+      </c>
+      <c r="X5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>174</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>197</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>93</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>99</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>783</v>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 203</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 97 </t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ5" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>27</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>26</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>601</v>
+      </c>
+      <c r="K6" t="n">
+        <v>107</v>
+      </c>
+      <c r="L6" t="n">
+        <v>234</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="N6" t="n">
+        <v>45</v>
+      </c>
+      <c r="O6" t="n">
+        <v>115</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>62</v>
+      </c>
+      <c r="R6" t="n">
+        <v>119</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5529999999999999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>71</v>
+      </c>
+      <c r="V6" t="n">
+        <v>76</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="X6" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>66</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>47</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>330</v>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 203</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 97 </t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ6" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>28</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>80</v>
+      </c>
+      <c r="I7" t="n">
+        <v>80</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2464</v>
+      </c>
+      <c r="K7" t="n">
+        <v>404</v>
+      </c>
+      <c r="L7" t="n">
+        <v>852</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="N7" t="n">
+        <v>155</v>
+      </c>
+      <c r="O7" t="n">
+        <v>386</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>249</v>
+      </c>
+      <c r="R7" t="n">
+        <v>466</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="U7" t="n">
+        <v>178</v>
+      </c>
+      <c r="V7" t="n">
+        <v>205</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="X7" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>240</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>270</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>119</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>106</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>129</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1141</v>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 203</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 97 </t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ7" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>29</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>81</v>
+      </c>
+      <c r="I8" t="n">
+        <v>81</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2573</v>
+      </c>
+      <c r="K8" t="n">
+        <v>522</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1051</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="N8" t="n">
+        <v>164</v>
+      </c>
+      <c r="O8" t="n">
+        <v>386</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>358</v>
+      </c>
+      <c r="R8" t="n">
+        <v>665</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.5379999999999999</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="U8" t="n">
+        <v>246</v>
+      </c>
+      <c r="V8" t="n">
+        <v>305</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="X8" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>300</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>333</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>161</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>69</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>134</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>138</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1454</v>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 203</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 97 </t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>13</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13</v>
+      </c>
+      <c r="J9" t="n">
+        <v>422</v>
+      </c>
+      <c r="K9" t="n">
+        <v>91</v>
+      </c>
+      <c r="L9" t="n">
+        <v>200</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="N9" t="n">
+        <v>40</v>
+      </c>
+      <c r="O9" t="n">
+        <v>89</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>51</v>
+      </c>
+      <c r="R9" t="n">
+        <v>111</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="U9" t="n">
+        <v>44</v>
+      </c>
+      <c r="V9" t="n">
+        <v>49</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>47</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>53</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>33</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>266</v>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 203</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 97 </t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ9" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Career</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
         <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>157</v>
-      </c>
-      <c r="I5" t="n">
-        <v>70</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4346</v>
-      </c>
-      <c r="K5" t="n">
-        <v>740</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1728</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.428</v>
-      </c>
-      <c r="N5" t="n">
-        <v>287</v>
-      </c>
-      <c r="O5" t="n">
-        <v>761</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.377</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>453</v>
-      </c>
-      <c r="R5" t="n">
-        <v>967</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.511</v>
-      </c>
-      <c r="U5" t="n">
-        <v>248</v>
-      </c>
-      <c r="V5" t="n">
-        <v>301</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.8240000000000001</v>
-      </c>
-      <c r="X5" t="n">
-        <v>72</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>417</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>489</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>555</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>153</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>255</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>334</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>2015</v>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 198</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 99 </t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>412</v>
+      </c>
+      <c r="I10" t="n">
+        <v>295</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11511</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1978</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4273</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="N10" t="n">
+        <v>723</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1847</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1255</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2426</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.5479999999999999</v>
+      </c>
+      <c r="U10" t="n">
+        <v>882</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1040</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="X10" t="n">
+        <v>192</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1209</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1401</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>582</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>231</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>597</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>666</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>5561</v>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 203</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 97 </t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ5" t="n">
-        <v>27</v>
+      <c r="AJ10" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
